--- a/outputs/latein_records_report.xlsx
+++ b/outputs/latein_records_report.xlsx
@@ -33,12 +33,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -68,11 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L189"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,259 +454,337 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>COUNT</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Late In Report</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 10</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Late In Report</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 2</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 7</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 9</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 10</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Department: AGRICULTURE</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Department: AGRICULTURE</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>FADHILA JAILOS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>BASIGYE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>AGRICULTURAL DATA CLERK</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Clock In</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2820</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FADHILA JAILOS</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BASIGYE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>AGRICULTURAL DATA CLERK</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>07:01</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Department: CASUAL WORKSHOP</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Department: CASUAL WORKSHOP</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>2947</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>JOHN LUCAS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>MAGANGA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>MECHANICS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Clock In</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Clock Out</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Total Hours</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2947</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JOHN LUCAS</t>
+          <t>EMIL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MAGANGA</t>
+          <t>BUKURU</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,7 +794,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MECHANICS</t>
+          <t>MECHANICS HELPER</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -724,34 +809,24 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>07:03</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>16:04</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>09:00</t>
+          <t>07:05</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>3078</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EMIL</t>
+          <t>BRUNO YUSUPH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,7 +841,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MECHANICS HELPER</t>
+          <t>GREASE_MAN</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,29 +856,39 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>07:05</t>
+          <t>07:07</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>10:48</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3078</t>
+          <t>3107</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRUNO YUSUPH</t>
+          <t>KIMASA SAMBU</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BUKURU</t>
+          <t>KIMASA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -813,7 +898,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GREASE_MAN</t>
+          <t>TYREMAN HELPER</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -828,49 +913,49 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:16</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17:56</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>08:49</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3107</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KIMASA SAMBU</t>
+          <t>EVONESS SIMON</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>KIMASA</t>
+          <t>MATHAYO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TYREMAN HELPER</t>
+          <t>WORKSHOP DATA CLERK</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -885,49 +970,49 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>07:01</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>08:49</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3158</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EVONESS SIMON</t>
+          <t>ANDREW SAFARI</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MATHAYO</t>
+          <t>MUSTAPHER</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WORKSHOP DATA CLERK</t>
+          <t>WELDER</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -942,39 +1027,39 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:11</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>05:52</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>3484</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ANDREW SAFARI</t>
+          <t>BENARD RICHARD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MUSTAPHER</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -999,268 +1084,286 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>07:15</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>14:26</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>07:11</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>13:03</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>05:52</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3484</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>BENARD RICHARD</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>JAMES</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>WELDER</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>07:15</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>14:26</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>07:11</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
           <t>15</t>
         </is>
       </c>
     </row>
-    <row r="16"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Department: CASUAL SURVEYOR</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Department: CASUAL SURVEYOR</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>1322</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>STEVEN PETRO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>MBISE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Position</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Clock In</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1322</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>STEVEN PETRO</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>MBISE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>07:07</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
           <t>7</t>
         </is>
       </c>
     </row>
-    <row r="20"/>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Department: CASUAL IRRIGATION</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Department: CASUAL IRRIGATION</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Bryson</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>SUNDAY</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>GRP HELPER</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Clock In</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bryson</t>
+          <t>EDIBETH</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SUNDAY</t>
+          <t>EDSON</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1285,29 +1388,29 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EDIBETH</t>
+          <t>PETER</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EDSON</t>
+          <t>JACKSON</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1344,17 +1447,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PETER</t>
+          <t>MIUJIZA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JACKSON</t>
+          <t>ALFAYO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1391,17 +1494,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>2568</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIUJIZA</t>
+          <t>ARON</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALFAYO</t>
+          <t>RAMUNIKA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1426,29 +1529,29 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:08</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2568</t>
+          <t>2570</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ARON</t>
+          <t>MIPANGO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RAMUNIKA</t>
+          <t>CHABOYA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1473,29 +1576,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>07:08</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2570</t>
+          <t>2576</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIPANGO</t>
+          <t>HAMIS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CHABOYA</t>
+          <t>SALUM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1520,29 +1623,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>2577</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HAMIS</t>
+          <t>SYLVANUSI</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SALUM</t>
+          <t>WILSON</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1567,29 +1670,29 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>07:06</t>
+          <t>07:08</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2577</t>
+          <t>2586</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SYLVANUSI</t>
+          <t>ISAYA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>WILSON</t>
+          <t>JEREMIAH</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1626,17 +1729,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ISAYA</t>
+          <t>SEVELINO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>JEREMIAH</t>
+          <t>KIBWIGILI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1661,29 +1764,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>07:08</t>
+          <t>07:07</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>2695</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SEVELINO</t>
+          <t>NICHOLAUS JOSHUA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>KIBWIGILI</t>
+          <t>JOEL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1693,7 +1796,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GRP HELPER</t>
+          <t>MACHINERY SUPERVISOR</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1706,31 +1809,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>07:07</t>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>17:14</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2695</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NICHOLAUS JOSHUA</t>
+          <t>RONALDO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JOEL</t>
+          <t>JOSAM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1740,7 +1843,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MACHINERY SUPERVISOR</t>
+          <t>GRP HELPER</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1753,31 +1856,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>17:14</t>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>07:07</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>3208</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RONALDO</t>
+          <t>ELIUD MPAHAJE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JOSAM</t>
+          <t>MGOZI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1785,11 +1888,6 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>GRP HELPER</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>2025-09-13</t>
@@ -1800,31 +1898,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>07:07</t>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>16:10</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3208</t>
+          <t>3418</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ELIUD MPAHAJE</t>
+          <t>HARUNI  SAMSON</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MGOZI</t>
+          <t>KAGIYE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1832,6 +1930,11 @@
           <t>M</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>TRIP TECHNICAL HANDS</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>2025-09-13</t>
@@ -1844,7 +1947,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -1856,17 +1959,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3418</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HARUNI  SAMSON</t>
+          <t>YAHAYA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>KAGIYE</t>
+          <t>JUMANNE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1876,7 +1979,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TRIP TECHNICAL HANDS</t>
+          <t>GRP HELPER</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1889,31 +1992,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>13:25</t>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>07:07</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>684</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>YAHAYA</t>
+          <t>SILVANUS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JUMANNE</t>
+          <t>ROBERT</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1938,141 +2041,150 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>684</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SILVANUS</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>ROBERT</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>GRP HELPER</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>07:06</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="39"/>
+    <row r="38"/>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Department: CASUAL LAND DEVELOPMENT</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n"/>
+      <c r="C39" s="2" t="n"/>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Department: CASUAL LAND DEVELOPMENT</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>HARUNA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>ABDALLAH</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Position</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Clock In</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>2188</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HARUNA</t>
+          <t>FILBERT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ABDALLAH</t>
+          <t>JERAD</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2090,31 +2202,41 @@
           <t>Saturday</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>07:01</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:53</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>09:51</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2188</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FILBERT</t>
+          <t>ANORD MAWEKO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JERAD</t>
+          <t>KAVAKO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2122,6 +2244,11 @@
           <t>M</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>TIPPER DRIVER</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>2025-09-13</t>
@@ -2132,41 +2259,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>07:01</t>
-        </is>
-      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16:53</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>09:51</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ANORD MAWEKO</t>
+          <t>Innocent</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>KAVAKO</t>
+          <t>NGINILA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2176,7 +2293,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TIPPER DRIVER</t>
+          <t>GRADER OPERATOR</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2203,17 +2320,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>3023</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Innocent</t>
+          <t>PASCHAL ELIASI</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NGINILA</t>
+          <t>MTOTO</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2223,7 +2340,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GRADER OPERATOR</t>
+          <t>CHAIN SAW HELPER</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2238,7 +2355,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2250,17 +2367,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PASCHAL ELIASI</t>
+          <t>ISAKA GARDIBERT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MTOTO</t>
+          <t>BARNABASI</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2270,7 +2387,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CHAIN SAW HELPER</t>
+          <t>TIMBER LOADER</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2285,7 +2402,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2297,17 +2414,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3082</t>
+          <t>3112</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ISAKA GARDIBERT</t>
+          <t>BASHIRU NASIBU</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BARNABASI</t>
+          <t>RASHIDI</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2317,7 +2434,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TIMBER LOADER</t>
+          <t>TRACTOR OPERATOR-LOW HP</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2332,7 +2449,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2344,17 +2461,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3112</t>
+          <t>3180</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BASHIRU NASIBU</t>
+          <t>ABIHUDI OBED</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RASHIDI</t>
+          <t>KAGOMA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2362,11 +2479,6 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>TRACTOR OPERATOR-LOW HP</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>2025-09-13</t>
@@ -2379,7 +2491,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2391,17 +2503,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ABIHUDI OBED</t>
+          <t>ERASTO ANDREA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>KAGOMA</t>
+          <t>BALINAGO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2409,6 +2521,11 @@
           <t>M</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>TRIP CHEKER</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>2025-09-13</t>
@@ -2421,7 +2538,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>16:56</t>
+          <t>16:57</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2433,17 +2550,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3181</t>
+          <t>3184</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ERASTO ANDREA</t>
+          <t>WILLIAM CORNEL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BALINAGO</t>
+          <t>KAFIPA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2453,7 +2570,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TRIP CHEKER</t>
+          <t>ROOT PECKERS HELPER</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2468,7 +2585,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>16:57</t>
+          <t>16:56</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2480,27 +2597,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WILLIAM CORNEL</t>
+          <t>GOODLUCK MASOUD</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>KAFIPA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>M</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ROOT PECKERS HELPER</t>
+          <t>GENERAL HELPER</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2513,36 +2625,41 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>16:56</t>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>07:01</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GOODLUCK MASOUD</t>
+          <t>GIVEN AIDAN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>BWENDE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>GENERAL HELPER</t>
+          <t>TRACTOR DRIVER-MEDIUM HP</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2557,29 +2674,29 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3397</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GIVEN AIDAN</t>
+          <t>MSAFILI PHALES</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BWENDE</t>
+          <t>MAGANHILA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2602,31 +2719,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>07:30</t>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>17:54</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3398</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MSAFILI PHALES</t>
+          <t>ELINAMI NKIRWA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MAGANHILA</t>
+          <t>KAAYA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2636,7 +2753,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TRACTOR DRIVER-MEDIUM HP</t>
+          <t>CRANE OPERATOR</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2651,7 +2768,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>17:54</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -2663,17 +2780,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3406</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ELINAMI NKIRWA</t>
+          <t>HOSEA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>KAAYA</t>
+          <t>PASKAL</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2683,7 +2800,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CRANE OPERATOR</t>
+          <t>TIMBER LOADER</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2698,7 +2815,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -2707,132 +2824,146 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>HOSEA</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>PASKAL</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>TIMBER LOADER</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>17:01</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="57"/>
+    <row r="56"/>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Department: STORE</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n"/>
+      <c r="C57" s="2" t="n"/>
+      <c r="D57" s="2" t="n"/>
+      <c r="E57" s="2" t="n"/>
+      <c r="F57" s="2" t="n"/>
+      <c r="G57" s="2" t="n"/>
+      <c r="H57" s="2" t="n"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Department: STORE</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>TENGA KAKENZI</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>MALANGUKA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>TRACTOR OPERATOR-LOW HP</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Clock In</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>14:44</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2127</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TENGA KAKENZI</t>
+          <t>MATOZI</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MALANGUKA</t>
+          <t>MAWAZO</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2840,11 +2971,6 @@
           <t>M</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>TRACTOR OPERATOR-LOW HP</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>2025-09-13</t>
@@ -2857,7 +2983,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -2869,17 +2995,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MATOZI</t>
+          <t>GABRIEL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MAWAZO</t>
+          <t>ANDREW LWINGA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2887,6 +3013,11 @@
           <t>M</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>FUEL ATTENDER</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>2025-09-13</t>
@@ -2897,31 +3028,41 @@
           <t>Saturday</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>07:50</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>14:02</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>06:12</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GABRIEL</t>
+          <t>ADIL RAJAB</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ANDREW LWINGA</t>
+          <t>MSUSA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2931,7 +3072,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FUEL ATTENDER</t>
+          <t>IRRIGATION STORE KEEPER</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2944,41 +3085,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>14:02</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>06:12</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>88</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ADIL RAJAB</t>
+          <t>HEMED BAKARI</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MSUSA</t>
+          <t>MSUYA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2988,7 +3119,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>IRRIGATION STORE KEEPER</t>
+          <t>FUEL ATTENDER</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3001,153 +3132,162 @@
           <t>Saturday</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>07:24</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>14:31</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>07:06</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>HEMED BAKARI</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>MSUYA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>FUEL ATTENDER</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>07:24</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>14:31</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>07:06</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
           <t>24</t>
         </is>
       </c>
     </row>
-    <row r="65"/>
+    <row r="64"/>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Department: CASUAL STORE</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n"/>
+      <c r="C65" s="2" t="n"/>
+      <c r="D65" s="2" t="n"/>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
+      <c r="G65" s="2" t="n"/>
+      <c r="H65" s="2" t="n"/>
+      <c r="I65" s="2" t="n"/>
+      <c r="J65" s="2" t="n"/>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Department: CASUAL STORE</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Emilian</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>EMILIAN</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Position</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Clock In</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>2183</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Emilian</t>
+          <t>FABIAN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>EMILIAN</t>
+          <t>ALOYCE</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3155,6 +3295,11 @@
           <t>M</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>FUEL ATTENDER</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>2025-09-13</t>
@@ -3167,7 +3312,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>14:39</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3179,17 +3324,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2183</t>
+          <t>2944</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FABIAN</t>
+          <t>ANORD PATRICK</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ALOYCE</t>
+          <t>RAPHAEL</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3214,7 +3359,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>14:39</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3226,17 +3371,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ANORD PATRICK</t>
+          <t>FREDRIC WILLISON</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RAPHAEL</t>
+          <t>CHUBWA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3246,7 +3391,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FUEL ATTENDER</t>
+          <t>STORE HELPER</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3259,41 +3404,51 @@
           <t>Saturday</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>07:06</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>07:08</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FREDRIC WILLISON</t>
+          <t>VERONICA FRANSIC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CHUBWA</t>
+          <t>KWANGU</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>STORE HELPER</t>
+          <t>STORE KEEPER</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3306,397 +3461,429 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>07:06</t>
-        </is>
-      </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>14:15</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>07:08</t>
+          <t>16:54</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>3348</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>VERONICA FRANSIC</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>KWANGU</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>STORE KEEPER</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>16:54</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
           <t>60</t>
         </is>
       </c>
     </row>
-    <row r="73"/>
+    <row r="72"/>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Department: MANAGERS &amp; EXPERTS</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n"/>
+      <c r="C73" s="2" t="n"/>
+      <c r="D73" s="2" t="n"/>
+      <c r="E73" s="2" t="n"/>
+      <c r="F73" s="2" t="n"/>
+      <c r="G73" s="2" t="n"/>
+      <c r="H73" s="2" t="n"/>
+      <c r="I73" s="2" t="n"/>
+      <c r="J73" s="2" t="n"/>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Department: MANAGERS &amp; EXPERTS</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>HITEN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>SUMARIYA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>COST ANALYST</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Clock In</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>07:23</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>1413</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>HITEN</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>SUMARIYA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>COST ANALYST</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>07:23</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
           <t>23</t>
         </is>
       </c>
     </row>
-    <row r="77"/>
+    <row r="76"/>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Department: ELECTRICAL</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n"/>
+      <c r="C77" s="2" t="n"/>
+      <c r="D77" s="2" t="n"/>
+      <c r="E77" s="2" t="n"/>
+      <c r="F77" s="2" t="n"/>
+      <c r="G77" s="2" t="n"/>
+      <c r="H77" s="2" t="n"/>
+      <c r="I77" s="2" t="n"/>
+      <c r="J77" s="2" t="n"/>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Department: ELECTRICAL</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>1147</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>KATINGA SELEMANI</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>KATINGA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>Senior  Electrical Technician</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Clock In</t>
+          <t>07:25</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Clock Out</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Total Hours</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>1147</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>KATINGA SELEMANI</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>KATINGA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Senior  Electrical Technician</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>07:25</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>13:05</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>05:40</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
           <t>25</t>
         </is>
       </c>
     </row>
-    <row r="81"/>
+    <row r="80"/>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Department: HUMAN RESOURCES</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n"/>
+      <c r="C81" s="2" t="n"/>
+      <c r="D81" s="2" t="n"/>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+      <c r="G81" s="2" t="n"/>
+      <c r="H81" s="2" t="n"/>
+      <c r="I81" s="2" t="n"/>
+      <c r="J81" s="2" t="n"/>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Department: HUMAN RESOURCES</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>2716</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>VICENT THOMAS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>MAZENGO</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>HR AND ADMINISTRATION ASSISTANCE</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Clock In</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2716</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>VICENT THOMAS</t>
+          <t>ASHURA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MAZENGO</t>
+          <t>HEMEDI</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>HR AND ADMINISTRATION ASSISTANCE</t>
+          <t>ASSISTANT HUMAN RESOURCE</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3711,7 +3898,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -3720,249 +3907,277 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2819</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ASHURA</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>HEMEDI</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>ASSISTANT HUMAN RESOURCE</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>14:59</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="86"/>
+    <row r="85"/>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Department: CASUAL HUMAN RESOURCES</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n"/>
+      <c r="C86" s="2" t="n"/>
+      <c r="D86" s="2" t="n"/>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+      <c r="G86" s="2" t="n"/>
+      <c r="H86" s="2" t="n"/>
+      <c r="I86" s="2" t="n"/>
+      <c r="J86" s="2" t="n"/>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Department: CASUAL HUMAN RESOURCES</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>2864</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>IBRAHIM MUSA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>ZILALIYE</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Position</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Clock In</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>13:14</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2864</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>IBRAHIM MUSA</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>ZILALIYE</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>13:14</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
           <t>60</t>
         </is>
       </c>
     </row>
-    <row r="90"/>
+    <row r="89"/>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Department: SHEQ</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n"/>
+      <c r="C90" s="2" t="n"/>
+      <c r="D90" s="2" t="n"/>
+      <c r="E90" s="2" t="n"/>
+      <c r="F90" s="2" t="n"/>
+      <c r="G90" s="2" t="n"/>
+      <c r="H90" s="2" t="n"/>
+      <c r="I90" s="2" t="n"/>
+      <c r="J90" s="2" t="n"/>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Department: SHEQ</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>1078</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>ISRACK ISRAEL</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>FESTO</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>CLINICAL OFFICER</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Clock In</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>1206</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ISRACK ISRAEL</t>
+          <t>HILDA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>FESTO</t>
+          <t>KAJORO</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CLINICAL OFFICER</t>
+          <t>cleaner</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3975,36 +4190,46 @@
           <t>Saturday</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>07:03</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>12:09</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>05:05</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HILDA</t>
+          <t>RICHARD</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>KAJORO</t>
+          <t>LEONARD</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4029,12 +4254,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>04:58</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -4046,27 +4271,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>2797</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RICHARD</t>
+          <t>JANETH</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LEONARD</t>
+          <t>KIMILA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>cleaner</t>
+          <t>ASST CLINICAL OFFICER</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4079,51 +4304,41 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>07:03</t>
-        </is>
-      </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>12:01</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>04:58</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2797</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JANETH</t>
+          <t>AYUBU BATHROMEO</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>KIMILA</t>
+          <t>MISIGARO</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ASST CLINICAL OFFICER</t>
+          <t>SAFETY OFFICER</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4138,7 +4353,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -4150,27 +4365,27 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2909</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AYUBU BATHROMEO</t>
+          <t>CESILIA WENSENSLAUS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MISIGARO</t>
+          <t>NJOVU</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SAFETY OFFICER</t>
+          <t>ASSISTANT CLINICAL OFFICER</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4183,31 +4398,41 @@
           <t>Saturday</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>07:26</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>05:52</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CESILIA WENSENSLAUS</t>
+          <t>ELIDA CASSIAN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NJOVU</t>
+          <t>PETER</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4217,7 +4442,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ASSISTANT CLINICAL OFFICER</t>
+          <t>ENVIRONMENTAL CLEANING SUPERVISOR</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4232,171 +4457,185 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>07:26</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>13:18</t>
+          <t>12:58</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:27</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ELIDA CASSIAN</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>PETER</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>ENVIRONMENTAL CLEANING SUPERVISOR</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>07:30</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>12:58</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>05:27</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
     </row>
-    <row r="100"/>
+    <row r="99"/>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Department: CASUAL SHEQ</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n"/>
+      <c r="C100" s="2" t="n"/>
+      <c r="D100" s="2" t="n"/>
+      <c r="E100" s="2" t="n"/>
+      <c r="F100" s="2" t="n"/>
+      <c r="G100" s="2" t="n"/>
+      <c r="H100" s="2" t="n"/>
+      <c r="I100" s="2" t="n"/>
+      <c r="J100" s="2" t="n"/>
+      <c r="K100" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Department: CASUAL SHEQ</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>JANSON</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>JACOB</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>DATA CLERK</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Clock In</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Clock Out</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Total Hours</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>JANSON</t>
+          <t>ADELINA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>JACOB</t>
+          <t>KYARUZI</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DATA CLERK</t>
+          <t>cleaner</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4411,49 +4650,49 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:05</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>06:10</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ADELINA</t>
+          <t>LESA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>KYARUZI</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>cleaner</t>
+          <t>ENVIRONMENTAL CLEANING SUPERVISOR</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4468,49 +4707,39 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>07:05</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>05:35</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>2816</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>LESA</t>
+          <t>AGNESS SIX</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>NTUKAMAZINA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL CLEANING SUPERVISOR</t>
+          <t>ASSISTANT COOKER</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4525,29 +4754,39 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>07:10</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>04:55</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2816</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AGNESS SIX</t>
+          <t>JANETH</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NTUKAMAZINA</t>
+          <t>JOSEPH</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4557,7 +4796,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ASSISTANT COOKER</t>
+          <t>ASST CLINICAL OFFICER</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4572,49 +4811,44 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>07:10</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>04:55</t>
+          <t>05:46</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>JANETH</t>
+          <t>VANESA SILVIUS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>JOSEPH</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>GODFRED</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ASST CLINICAL OFFICER</t>
+          <t>cleaner</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4629,44 +4863,49 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>05:46</t>
+          <t>04:53</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>2871</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>VANESA SILVIUS</t>
+          <t>ABEL DANSTAN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>GODFRED</t>
+          <t>CHICHARO</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>cleaner</t>
+          <t>COOKER</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4681,49 +4920,44 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>07:24</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2871</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ABEL DANSTAN</t>
+          <t>ROSE APOLINARY</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CHICHARO</t>
+          <t>MAZINDA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>COOKER</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4738,39 +4972,39 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>07:03</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>17:07</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>07:24</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>2945</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ROSE APOLINARY</t>
+          <t>RESTUTA LIBERATUS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MAZINDA</t>
+          <t>MGUTA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4790,44 +5024,49 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:09</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>17:07</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>04:55</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2945</t>
+          <t>3012</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RESTUTA LIBERATUS</t>
+          <t>ELIUD TOYI</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MGUTA</t>
+          <t>MANUMBA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>LIGHT VEHICLE DRIVER</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4842,39 +5081,29 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>07:09</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>12:05</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>04:55</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ELIUD TOYI</t>
+          <t>MAISHA REVOCATUS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MANUMBA</t>
+          <t>KABOBOYE</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4884,7 +5113,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>LIGHT VEHICLE DRIVER</t>
+          <t>cleaner</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4899,375 +5128,417 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>12:49</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>05:18</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>3106</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>MAISHA REVOCATUS</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>KABOBOYE</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>cleaner</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>07:30</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>12:49</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>05:18</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
     </row>
-    <row r="114"/>
+    <row r="113"/>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Department: IT</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n"/>
+      <c r="C114" s="2" t="n"/>
+      <c r="D114" s="2" t="n"/>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+      <c r="H114" s="2" t="n"/>
+      <c r="I114" s="2" t="n"/>
+      <c r="J114" s="2" t="n"/>
+      <c r="K114" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Department: IT</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>FRANK EVARIST</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>KIDOHELA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>MANAGERIAL TRAINEE IT</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Clock In</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>FRANK EVARIST</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>KIDOHELA</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>MANAGERIAL TRAINEE IT</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>13:22</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
           <t>60</t>
         </is>
       </c>
     </row>
-    <row r="118"/>
+    <row r="117"/>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Department: SECURITY</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n"/>
+      <c r="C118" s="2" t="n"/>
+      <c r="D118" s="2" t="n"/>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+      <c r="H118" s="2" t="n"/>
+      <c r="I118" s="2" t="n"/>
+      <c r="J118" s="2" t="n"/>
+      <c r="K118" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Department: SECURITY</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>2862</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>THOMAS RICHARD</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>NKWABI</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>SECURITY OFFICER</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Clock In</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>07:19</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2862</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>THOMAS RICHARD</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>NKWABI</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>SECURITY OFFICER</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>07:19</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
           <t>19</t>
         </is>
       </c>
     </row>
-    <row r="122"/>
+    <row r="121"/>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Department: CASUAL SECURITY</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n"/>
+      <c r="C122" s="2" t="n"/>
+      <c r="D122" s="2" t="n"/>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+      <c r="H122" s="2" t="n"/>
+      <c r="I122" s="2" t="n"/>
+      <c r="J122" s="2" t="n"/>
+      <c r="K122" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Department: CASUAL SECURITY</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>TAMI ENOCK</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>FARU</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>ASSISTANT SECURITY OFFICER</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Clock In</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>07:02</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TAMI ENOCK</t>
+          <t>HOLSONI SIMON</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>FARU</t>
+          <t>KIHONGOZI</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5277,7 +5548,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ASSISTANT SECURITY OFFICER</t>
+          <t>SECURITY OFFICER</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5290,31 +5561,26 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>07:02</t>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>17:42</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2987</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>HOLSONI SIMON</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>KIHONGOZI</t>
+          <t>THEODORE POPE</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5324,7 +5590,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SECURITY OFFICER</t>
+          <t>FUEL SUPERVISOR</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5337,26 +5603,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>17:42</t>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>07:33</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3390</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>THEODORE POPE</t>
+          <t>ENOCK ANTHONY</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>YIRAGERA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5366,7 +5637,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FUEL SUPERVISOR</t>
+          <t>FUEL ATTENDER</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5379,31 +5650,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>07:33</t>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>14:48</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3468</t>
+          <t>3469</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ENOCK ANTHONY</t>
+          <t>IMANI YONA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>YIRAGERA</t>
+          <t>JOHN</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5428,7 +5699,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -5440,17 +5711,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>3469</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>IMANI YONA</t>
+          <t>CHARLES RICHARD</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>JOHN</t>
+          <t>MAPALALA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5475,7 +5746,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -5484,132 +5755,156 @@
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>3471</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>CHARLES RICHARD</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>MAPALALA</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>FUEL ATTENDER</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>15:58</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="131"/>
+    <row r="130"/>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>Department: ADMINISTRATION</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n"/>
+      <c r="C131" s="2" t="n"/>
+      <c r="D131" s="2" t="n"/>
+      <c r="E131" s="2" t="n"/>
+      <c r="F131" s="2" t="n"/>
+      <c r="G131" s="2" t="n"/>
+      <c r="H131" s="2" t="n"/>
+      <c r="I131" s="2" t="n"/>
+      <c r="J131" s="2" t="n"/>
+      <c r="K131" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Department: ADMINISTRATION</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>2128</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>CASTUS EMMANUEL</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>ZUNGU</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>ADMIN ACCOUNTANT ASSISTANT</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Clock In</t>
+          <t>07:31</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Clock Out</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Total Hours</t>
+          <t>05:49</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2128</t>
+          <t>2717</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CASTUS EMMANUEL</t>
+          <t>AMAN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ZUNGU</t>
+          <t>MUKSIN</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5619,7 +5914,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ADMIN ACCOUNTANT ASSISTANT</t>
+          <t>COST ANALYST</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5634,49 +5929,44 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>07:31</t>
+          <t>07:24</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>05:49</t>
+          <t>07:56</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2717</t>
+          <t>2795</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AMAN</t>
+          <t>HOPE STEPHEN</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MUKSIN</t>
+          <t>CHULEHA</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>COST ANALYST</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5689,148 +5979,152 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>07:24</t>
-        </is>
-      </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>15:21</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>07:56</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2795</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>HOPE STEPHEN</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>CHULEHA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>13:22</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
           <t>60</t>
         </is>
       </c>
     </row>
-    <row r="137"/>
+    <row r="136"/>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>Department: AIR SECURITY</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n"/>
+      <c r="C137" s="2" t="n"/>
+      <c r="D137" s="2" t="n"/>
+      <c r="E137" s="2" t="n"/>
+      <c r="F137" s="2" t="n"/>
+      <c r="G137" s="2" t="n"/>
+      <c r="H137" s="2" t="n"/>
+      <c r="I137" s="2" t="n"/>
+      <c r="J137" s="2" t="n"/>
+      <c r="K137" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Department: AIR SECURITY</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>2876</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>TUMAINI MAGAMBO</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>KAVANAHANGA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Position</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Clock In</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>07:39</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>39</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2876</t>
+          <t>2922</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TUMAINI MAGAMBO</t>
+          <t>AGOSTINO NHENDEL</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>KAVANAHANGA</t>
+          <t>NTETULUYE</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5838,6 +6132,11 @@
           <t>M</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>SECURITY GUARD</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>2025-09-13</t>
@@ -5850,29 +6149,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>07:39</t>
+          <t>07:32</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>2925</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AGOSTINO NHENDEL</t>
+          <t>YUSUPHU KASINDI</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>NTETULUYE</t>
+          <t>MDORORO</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5897,141 +6196,150 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>07:32</t>
+          <t>07:51</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2925</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>YUSUPHU KASINDI</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>MDORORO</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>SECURITY GUARD</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>07:51</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
           <t>51</t>
         </is>
       </c>
     </row>
-    <row r="143"/>
+    <row r="142"/>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>Department: INTERN/GRADUATES</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n"/>
+      <c r="C143" s="2" t="n"/>
+      <c r="D143" s="2" t="n"/>
+      <c r="E143" s="2" t="n"/>
+      <c r="F143" s="2" t="n"/>
+      <c r="G143" s="2" t="n"/>
+      <c r="H143" s="2" t="n"/>
+      <c r="I143" s="2" t="n"/>
+      <c r="J143" s="2" t="n"/>
+      <c r="K143" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Department: INTERN/GRADUATES</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>2953</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>JOSEPH EMMANUEL</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>HAULE</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Position</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Clock In</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2953</t>
+          <t>3214</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>JOSEPH EMMANUEL</t>
+          <t>KELVIN AMON</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HAULE</t>
+          <t>MWASHINANI</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -6039,6 +6347,11 @@
           <t>M</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>SAFETY OFFICER</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr">
         <is>
           <t>2025-09-13</t>
@@ -6049,31 +6362,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>07:03</t>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>13:21</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>3214</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>KELVIN AMON</t>
+          <t>LEWIS LUCAS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MWASHINANI</t>
+          <t>JACOBO</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6083,7 +6396,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SAFETY OFFICER</t>
+          <t>DATA CLERK</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6098,7 +6411,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:26</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -6107,244 +6420,272 @@
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>3313</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>LEWIS LUCAS</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>JACOBO</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>DATA CLERK</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>13:26</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="149"/>
+    <row r="148"/>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Department: CASUAL FACTORY</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n"/>
+      <c r="C149" s="2" t="n"/>
+      <c r="D149" s="2" t="n"/>
+      <c r="E149" s="2" t="n"/>
+      <c r="F149" s="2" t="n"/>
+      <c r="G149" s="2" t="n"/>
+      <c r="H149" s="2" t="n"/>
+      <c r="I149" s="2" t="n"/>
+      <c r="J149" s="2" t="n"/>
+      <c r="K149" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Department: CASUAL FACTORY</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>3404</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>SARAFINA GEORGE</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>SAIMONI</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>GENERAL HELPER</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Clock In</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>13:44</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>3404</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>SARAFINA GEORGE</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>SAIMONI</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>GENERAL HELPER</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>13:44</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
           <t>60</t>
         </is>
       </c>
     </row>
-    <row r="153"/>
+    <row r="152"/>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>Department: CASUAL TRANSPORT</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n"/>
+      <c r="C153" s="2" t="n"/>
+      <c r="D153" s="2" t="n"/>
+      <c r="E153" s="2" t="n"/>
+      <c r="F153" s="2" t="n"/>
+      <c r="G153" s="2" t="n"/>
+      <c r="H153" s="2" t="n"/>
+      <c r="I153" s="2" t="n"/>
+      <c r="J153" s="2" t="n"/>
+      <c r="K153" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Department: CASUAL TRANSPORT</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>2861</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>GADIUS GAUDANCE</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>SIMKWAI</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>CONDUCTOR</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Clock In</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>15:07</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2861</t>
+          <t>3316</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>GADIUS GAUDANCE</t>
+          <t>BENJAMIN MUSSA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SIMKWAI</t>
+          <t>BENJAMIN</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6354,7 +6695,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>CONDUCTOR</t>
+          <t>BUS DRIVER</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6369,7 +6710,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>15:07</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -6381,17 +6722,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3316</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BENJAMIN MUSSA</t>
+          <t>BARAKA HUSEN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>BENJAMIN</t>
+          <t>SELEMAN</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6416,7 +6757,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>16:03</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -6428,17 +6769,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>3317</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BARAKA HUSEN</t>
+          <t>EMMANUEL HUSSEIN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SELEMAN</t>
+          <t>JUMANNE</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6448,7 +6789,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>BUS DRIVER</t>
+          <t>CONDUCTOR</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6463,7 +6804,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>16:03</t>
+          <t>17:09</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -6475,17 +6816,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>3476</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>EMMANUEL HUSSEIN</t>
+          <t>SADAMU HARUNA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>JUMANNE</t>
+          <t>SWALEHE</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6510,7 +6851,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>17:09</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -6519,132 +6860,146 @@
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>3674</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>SADAMU HARUNA</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>SWALEHE</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>CONDUCTOR</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>12:11</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="161"/>
+    <row r="160"/>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>Department: WORKSHOP</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n"/>
+      <c r="C161" s="2" t="n"/>
+      <c r="D161" s="2" t="n"/>
+      <c r="E161" s="2" t="n"/>
+      <c r="F161" s="2" t="n"/>
+      <c r="G161" s="2" t="n"/>
+      <c r="H161" s="2" t="n"/>
+      <c r="I161" s="2" t="n"/>
+      <c r="J161" s="2" t="n"/>
+      <c r="K161" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Department: WORKSHOP</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>LUDOVICK FILBERT</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>NAMBUNGA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>WORKSHOP SUPERVISOR</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Clock In</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>07:25</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>LUDOVICK FILBERT</t>
+          <t>INNOCENT GODFREY</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>NAMBUNGA</t>
+          <t>SHILLA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6654,7 +7009,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>WORKSHOP SUPERVISOR</t>
+          <t>AUTO ELECTRICIAN</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6669,29 +7024,39 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>07:25</t>
+          <t>07:11</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>10:44</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>INNOCENT GODFREY</t>
+          <t>HAPSON HENRY</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SHILLA</t>
+          <t>SILAS</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6701,7 +7066,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>AUTO ELECTRICIAN</t>
+          <t>AGRO MECHANICS ASSISTANT</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6716,39 +7081,29 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>07:11</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>17:55</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>10:44</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>HAPSON HENRY</t>
+          <t>JUMA RAMADHANI</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SILAS</t>
+          <t>KISWANYA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6758,7 +7113,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>AGRO MECHANICS ASSISTANT</t>
+          <t>PICKUP DRIVER</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6773,29 +7128,39 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>07:28</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>17:51</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>10:23</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>JUMA RAMADHANI</t>
+          <t>BARAKA NASANI</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>KISWANYA</t>
+          <t>MRAGANE</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6818,41 +7183,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>07:28</t>
-        </is>
-      </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>17:51</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>10:23</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>BARAKA NASANI</t>
+          <t>ERNEST WILLIAM</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>MRAGANE</t>
+          <t>LUFWEZA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6875,31 +7230,41 @@
           <t>Saturday</t>
         </is>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>07:03</t>
+        </is>
+      </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>13:07</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>06:04</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ERNEST WILLIAM</t>
+          <t>ROBERT THOBIAS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>LUFWEZA</t>
+          <t>FAIDA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6922,41 +7287,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>07:03</t>
-        </is>
-      </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>13:07</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>06:04</t>
+          <t>15:29</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>973</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ROBERT THOBIAS</t>
+          <t>CHARLES SAMEL</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>FAIDA</t>
+          <t>SEMTI</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6979,153 +7334,162 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>15:29</t>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>07:24</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>973</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>CHARLES SAMEL</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>SEMTI</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>PICKUP DRIVER</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>07:24</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
           <t>24</t>
         </is>
       </c>
     </row>
-    <row r="172"/>
+    <row r="171"/>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Department: CASUAL  AGRIC</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n"/>
+      <c r="C172" s="2" t="n"/>
+      <c r="D172" s="2" t="n"/>
+      <c r="E172" s="2" t="n"/>
+      <c r="F172" s="2" t="n"/>
+      <c r="G172" s="2" t="n"/>
+      <c r="H172" s="2" t="n"/>
+      <c r="I172" s="2" t="n"/>
+      <c r="J172" s="2" t="n"/>
+      <c r="K172" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Department: CASUAL  AGRIC</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>3351</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>JOSEPHAT VICENT</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>CANE CUTTER</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Weekday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Clock In</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>07:02</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>3351</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>JOSEPHAT VICENT</t>
+          <t>STEPHANIA NDABEMEYE</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>M</t>
+          <t>NTIRUHANGULA</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CANE CUTTER</t>
+          <t>GENERAL HELPER</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7138,31 +7502,31 @@
           <t>Saturday</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>07:02</t>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>16:48</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>3521</t>
+          <t>3523</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>STEPHANIA NDABEMEYE</t>
+          <t>JOINES SYLVESTER</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>NTIRUHANGULA</t>
+          <t>NTUKAMAZINA</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7180,31 +7544,46 @@
           <t>Saturday</t>
         </is>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>07:01</t>
+        </is>
+      </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>16:48</t>
+          <t>15:16</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>08:14</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>JOINES SYLVESTER</t>
+          <t>AMON HOSEA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>NTUKAMAZINA</t>
+          <t>NCHULA</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7225,16 +7604,6 @@
       <c r="H177" t="inlineStr">
         <is>
           <t>07:01</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>15:16</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>08:14</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -7246,17 +7615,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>3578</t>
+          <t>3581</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMON HOSEA</t>
+          <t>ASHERI PIUS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>NCHULA</t>
+          <t>LUYOGWA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7281,29 +7650,39 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>07:01</t>
+          <t>07:02</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>15:26</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>08:24</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>3581</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ASHERI PIUS</t>
+          <t>ABEL HELBETH</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>LUYOGWA</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7328,161 +7707,160 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>07:02</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>3593</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>ABEL HELBETH</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>MICHAEL</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>GENERAL HELPER</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>07:04</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>16:51</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>09:47</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="181"/>
+    <row r="180"/>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>Department: CASUAL CIVIL</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n"/>
+      <c r="C181" s="2" t="n"/>
+      <c r="D181" s="2" t="n"/>
+      <c r="E181" s="2" t="n"/>
+      <c r="F181" s="2" t="n"/>
+      <c r="G181" s="2" t="n"/>
+      <c r="H181" s="2" t="n"/>
+      <c r="I181" s="2" t="n"/>
+      <c r="J181" s="2" t="n"/>
+      <c r="K181" s="2" t="inlineStr">
+        <is>
+          <t>Count: 0</t>
+        </is>
+      </c>
+    </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Department: CASUAL CIVIL</t>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Att date</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Weekday</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Clock In</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Clock Out</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Total Hours</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Late In(M)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Employee ID</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>JOLES</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>JASTONE</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Position</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Att date</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Clock In</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Clock Out</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Total Hours</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Late In(M)</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>JOLES</t>
+          <t>MICHAEL</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>JASTONE</t>
+          <t>JUMA</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -7490,6 +7868,11 @@
           <t>M</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr">
         <is>
           <t>2025-09-13</t>
@@ -7502,7 +7885,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>12:55</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -7514,17 +7897,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>2931</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MICHAEL</t>
+          <t>ALEX SAIDI</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>JUMA</t>
+          <t>PETRO</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -7534,7 +7917,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>CIVIL HELPER</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7549,7 +7932,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>12:55</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -7561,17 +7944,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2931</t>
+          <t>3141</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ALEX SAIDI</t>
+          <t>YORAM JOSEPHAT</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>PETRO</t>
+          <t>BITEMBA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -7581,7 +7964,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CIVIL HELPER</t>
+          <t>MASON</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7596,7 +7979,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>12:57</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -7608,17 +7991,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>3141</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>YORAM JOSEPHAT</t>
+          <t>DISMAS GILLES</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>BITEMBA</t>
+          <t>MULILIYE</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -7628,7 +8011,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MASON</t>
+          <t>PLUMBER</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7643,7 +8026,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>12:57</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -7655,27 +8038,22 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>3167</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>DISMAS GILLES</t>
+          <t>LAMECK AMOS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>MULILIYE</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>M</t>
+          <t>AMOS</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>PLUMBER</t>
+          <t>CARPENTER</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7690,52 +8068,10 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>3287</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>LAMECK AMOS</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>AMOS</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>CARPENTER</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>12:12</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
         <is>
           <t>60</t>
         </is>

--- a/outputs/latein_records_report.xlsx
+++ b/outputs/latein_records_report.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K188"/>
+  <dimension ref="A1:L188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,54 +459,19 @@
           <t>Late In Report</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 9</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 10</t>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>COUNT</t>
         </is>
       </c>
     </row>
@@ -525,10 +490,9 @@
       <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -651,10 +615,9 @@
       <c r="H6" s="2" t="n"/>
       <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1119,10 +1082,9 @@
       <c r="H16" s="2" t="n"/>
       <c r="I16" s="2" t="n"/>
       <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1240,10 +1202,9 @@
       <c r="H20" s="2" t="n"/>
       <c r="I20" s="2" t="n"/>
       <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2066,10 +2027,9 @@
       <c r="H39" s="2" t="n"/>
       <c r="I39" s="2" t="n"/>
       <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2840,10 +2800,9 @@
       <c r="H57" s="2" t="n"/>
       <c r="I57" s="2" t="n"/>
       <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K57" s="2" t="n"/>
+      <c r="L57" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3169,10 +3128,9 @@
       <c r="H65" s="2" t="n"/>
       <c r="I65" s="2" t="n"/>
       <c r="J65" s="2" t="n"/>
-      <c r="K65" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K65" s="2" t="n"/>
+      <c r="L65" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3488,10 +3446,9 @@
       <c r="H73" s="2" t="n"/>
       <c r="I73" s="2" t="n"/>
       <c r="J73" s="2" t="n"/>
-      <c r="K73" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K73" s="2" t="n"/>
+      <c r="L73" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3614,10 +3571,9 @@
       <c r="H77" s="2" t="n"/>
       <c r="I77" s="2" t="n"/>
       <c r="J77" s="2" t="n"/>
-      <c r="K77" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K77" s="2" t="n"/>
+      <c r="L77" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3750,10 +3706,9 @@
       <c r="H81" s="2" t="n"/>
       <c r="I81" s="2" t="n"/>
       <c r="J81" s="2" t="n"/>
-      <c r="K81" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K81" s="2" t="n"/>
+      <c r="L81" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3923,10 +3878,9 @@
       <c r="H86" s="2" t="n"/>
       <c r="I86" s="2" t="n"/>
       <c r="J86" s="2" t="n"/>
-      <c r="K86" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K86" s="2" t="n"/>
+      <c r="L86" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -4044,10 +3998,9 @@
       <c r="H90" s="2" t="n"/>
       <c r="I90" s="2" t="n"/>
       <c r="J90" s="2" t="n"/>
-      <c r="K90" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K90" s="2" t="n"/>
+      <c r="L90" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4492,10 +4445,9 @@
       <c r="H100" s="2" t="n"/>
       <c r="I100" s="2" t="n"/>
       <c r="J100" s="2" t="n"/>
-      <c r="K100" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K100" s="2" t="n"/>
+      <c r="L100" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5163,10 +5115,9 @@
       <c r="H114" s="2" t="n"/>
       <c r="I114" s="2" t="n"/>
       <c r="J114" s="2" t="n"/>
-      <c r="K114" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K114" s="2" t="n"/>
+      <c r="L114" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5289,10 +5240,9 @@
       <c r="H118" s="2" t="n"/>
       <c r="I118" s="2" t="n"/>
       <c r="J118" s="2" t="n"/>
-      <c r="K118" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K118" s="2" t="n"/>
+      <c r="L118" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5415,10 +5365,9 @@
       <c r="H122" s="2" t="n"/>
       <c r="I122" s="2" t="n"/>
       <c r="J122" s="2" t="n"/>
-      <c r="K122" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K122" s="2" t="n"/>
+      <c r="L122" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5771,10 +5720,9 @@
       <c r="H131" s="2" t="n"/>
       <c r="I131" s="2" t="n"/>
       <c r="J131" s="2" t="n"/>
-      <c r="K131" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K131" s="2" t="n"/>
+      <c r="L131" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -6006,10 +5954,9 @@
       <c r="H137" s="2" t="n"/>
       <c r="I137" s="2" t="n"/>
       <c r="J137" s="2" t="n"/>
-      <c r="K137" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K137" s="2" t="n"/>
+      <c r="L137" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -6221,10 +6168,9 @@
       <c r="H143" s="2" t="n"/>
       <c r="I143" s="2" t="n"/>
       <c r="J143" s="2" t="n"/>
-      <c r="K143" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K143" s="2" t="n"/>
+      <c r="L143" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6436,10 +6382,9 @@
       <c r="H149" s="2" t="n"/>
       <c r="I149" s="2" t="n"/>
       <c r="J149" s="2" t="n"/>
-      <c r="K149" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K149" s="2" t="n"/>
+      <c r="L149" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6562,10 +6507,9 @@
       <c r="H153" s="2" t="n"/>
       <c r="I153" s="2" t="n"/>
       <c r="J153" s="2" t="n"/>
-      <c r="K153" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K153" s="2" t="n"/>
+      <c r="L153" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -6876,10 +6820,9 @@
       <c r="H161" s="2" t="n"/>
       <c r="I161" s="2" t="n"/>
       <c r="J161" s="2" t="n"/>
-      <c r="K161" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K161" s="2" t="n"/>
+      <c r="L161" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -7361,10 +7304,9 @@
       <c r="H172" s="2" t="n"/>
       <c r="I172" s="2" t="n"/>
       <c r="J172" s="2" t="n"/>
-      <c r="K172" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K172" s="2" t="n"/>
+      <c r="L172" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -7742,10 +7684,9 @@
       <c r="H181" s="2" t="n"/>
       <c r="I181" s="2" t="n"/>
       <c r="J181" s="2" t="n"/>
-      <c r="K181" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="K181" s="2" t="n"/>
+      <c r="L181" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="182">
